--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet name="RegisterPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -22,10 +23,37 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Sowjanya</t>
-  </si>
-  <si>
     <t>Welcome123</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>ITALY</t>
   </si>
 </sst>
 </file>
@@ -369,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,13 +417,79 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1111111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>